--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_34_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_34_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.7970139376493366, 4.299617622832373]</t>
+          <t>[3.7977436268605462, 4.298887933621163]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.06465041690442419, 0.33796129059998936]</t>
+          <t>[0.06459215712483202, 0.33801955037958153]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.004802462930046714</v>
+        <v>0.004818962077724587</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004802462930046714</v>
+        <v>0.004818962077724587</v>
       </c>
       <c r="W2" t="n">
         <v>21.60690690690738</v>
